--- a/excel/pojo/user.xlsx
+++ b/excel/pojo/user.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
-    <t>2022-10-19</t>
+    <t>2024-06-28</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>lyan2@ebay.com</t>
+    <t>linus.yan@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -121,17 +121,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="13" max="13" hidden="true" width="8.0" customWidth="false"/>
-    <col min="3" max="3" width="3.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="3.2421875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="6.6875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.72265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
